--- a/Estructuras_2Avanzado/Registros.xlsx
+++ b/Estructuras_2Avanzado/Registros.xlsx
@@ -14,19 +14,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>numero</t>
+    <t>id</t>
   </si>
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>sexo</t>
+    <t>edad</t>
   </si>
   <si>
-    <t>casad@</t>
+    <t>[1234, ricardo, 21]</t>
   </si>
   <si>
-    <t>544</t>
+    <t>[2345, braulio, 20]</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -98,12 +98,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Estructuras_2Avanzado/Registros.xlsx
+++ b/Estructuras_2Avanzado/Registros.xlsx
@@ -12,18 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>numero</t>
   </si>
   <si>
-    <t>cad</t>
+    <t>nombre</t>
   </si>
   <si>
-    <t>123</t>
+    <t>sexo</t>
   </si>
   <si>
-    <t>hola</t>
+    <t>casad@</t>
+  </si>
+  <si>
+    <t>544</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,13 +95,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Estructuras_2Avanzado/Registros.xlsx
+++ b/Estructuras_2Avanzado/Registros.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -23,10 +23,37 @@
     <t>edad</t>
   </si>
   <si>
-    <t>[1234, ricardo, 21]</t>
+    <t>[1212, carlos, 21]</t>
   </si>
   <si>
-    <t>[2345, braulio, 20]</t>
+    <t>[412, dsa, 54]</t>
+  </si>
+  <si>
+    <t>[666, dsd, 434]</t>
+  </si>
+  <si>
+    <t>[333, fsd, 55]</t>
+  </si>
+  <si>
+    <t>[789, jose, 12]</t>
+  </si>
+  <si>
+    <t>[5547, manuel, 10]</t>
+  </si>
+  <si>
+    <t>[1121, miguel, 90]</t>
+  </si>
+  <si>
+    <t>[1701, braulilo, 21]</t>
+  </si>
+  <si>
+    <t>[965478, maria, 22]</t>
+  </si>
+  <si>
+    <t>[78541, daniel, 44]</t>
+  </si>
+  <si>
+    <t>[9271, victor, 25]</t>
   </si>
 </sst>
 </file>
@@ -82,7 +109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,6 +133,33 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
